--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Grn Dom Intl.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/CA Grn Dom Intl.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="175">
   <si>
     <t>Anchorage</t>
   </si>
@@ -244,9 +244,6 @@
     <t>CSP Testing</t>
   </si>
   <si>
-    <t>YYYY-MM-DDTHH:MM:SS-SS:SS</t>
-  </si>
-  <si>
     <t>CollectionType</t>
   </si>
   <si>
@@ -529,16 +526,7 @@
     <t>ProcessShipmentRequest.RequestedShipment.CustomsClearanceDetail.Commodities.Commodities.CustomsValue</t>
   </si>
   <si>
-    <t>30 each</t>
-  </si>
-  <si>
     <t xml:space="preserve">NON_DOCUMENTS </t>
-  </si>
-  <si>
-    <t>41 each</t>
-  </si>
-  <si>
-    <t>23 each</t>
   </si>
   <si>
     <t xml:space="preserve">IN </t>
@@ -2379,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2460,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:80" s="18" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13" t="s">
@@ -2482,34 +2470,34 @@
         <v>54</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>57</v>
@@ -2521,181 +2509,181 @@
         <v>57</v>
       </c>
       <c r="V1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="W1" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AB1" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AI1" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AO1" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV1" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AS1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV1" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="AW1" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AX1" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AY1" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AZ1" s="14" t="s">
         <v>54</v>
       </c>
       <c r="BA1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="BB1" s="14" t="s">
+      <c r="BD1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="BC1" s="14" t="s">
+      <c r="BE1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="BD1" s="14" t="s">
+      <c r="BF1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BG1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="BI1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BJ1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="BG1" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="BH1" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BK1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="BO1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BP1" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BT1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BU1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="BX1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="BY1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="CA1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB1" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="BJ1" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="BK1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BL1" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM1" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="BN1" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="BO1" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="BQ1" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="BS1" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BT1" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BU1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="BV1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="BW1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="BX1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="BY1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="BZ1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="CA1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="CB1" s="17" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:80" s="10" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2709,16 +2697,16 @@
         <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>18</v>
@@ -2745,7 +2733,7 @@
         <v>48</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>50</v>
@@ -2769,16 +2757,16 @@
         <v>48</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD2" s="20" t="s">
         <v>52</v>
@@ -2790,47 +2778,47 @@
         <v>50</v>
       </c>
       <c r="AG2" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH2" s="20"/>
       <c r="AI2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AT2" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU2" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AV2" s="6" t="s">
         <v>19</v>
@@ -2845,31 +2833,31 @@
         <v>22</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC2" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC2" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="BD2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="BE2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF2" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="BF2" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="BG2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BI2" s="6" t="s">
         <v>17</v>
@@ -2884,25 +2872,25 @@
         <v>55</v>
       </c>
       <c r="BM2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BN2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BO2" s="6" t="s">
         <v>55</v>
       </c>
       <c r="BP2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="BQ2" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="BR2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BS2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BT2" s="6" t="s">
         <v>50</v>
@@ -2926,7 +2914,7 @@
         <v>48</v>
       </c>
       <c r="CA2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CB2" s="20" t="s">
         <v>21</v>
@@ -2937,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>30</v>
@@ -2945,17 +2933,15 @@
       <c r="D3" s="31">
         <v>1501</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="E3" s="32"/>
       <c r="F3" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>29</v>
@@ -3000,13 +2986,13 @@
         <v>60</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z3" s="31" t="s">
         <v>13</v>
@@ -3042,7 +3028,7 @@
       <c r="AW3" s="32"/>
       <c r="AX3" s="32"/>
       <c r="AY3" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ3" s="31">
         <v>1</v>
@@ -3078,7 +3064,7 @@
       <c r="BM3" s="31"/>
       <c r="BN3" s="31"/>
       <c r="BO3" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BP3" s="31"/>
       <c r="BQ3" s="31"/>
@@ -3107,20 +3093,18 @@
       <c r="D4" s="27">
         <v>1502</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>72</v>
-      </c>
+      <c r="E4" s="26"/>
       <c r="F4" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="27">
         <v>23</v>
@@ -3204,19 +3188,19 @@
       <c r="AW4" s="26"/>
       <c r="AX4" s="26"/>
       <c r="AY4" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ4" s="27">
         <v>1</v>
       </c>
       <c r="BA4" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BB4" s="39">
         <v>1200</v>
       </c>
       <c r="BC4" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD4" s="27">
         <v>23</v>
@@ -3244,20 +3228,20 @@
       </c>
       <c r="BL4" s="27"/>
       <c r="BM4" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BN4" s="27">
         <v>100</v>
       </c>
       <c r="BO4" s="27"/>
       <c r="BP4" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BR4" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BS4" s="27" t="s">
         <v>33</v>
@@ -3272,7 +3256,7 @@
         <v>8889348833</v>
       </c>
       <c r="BW4" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BX4" s="27" t="s">
         <v>39</v>
@@ -3299,20 +3283,18 @@
       <c r="D5" s="27">
         <v>1504</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>72</v>
-      </c>
+      <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="27">
         <v>50</v>
@@ -3354,13 +3336,13 @@
         <v>60</v>
       </c>
       <c r="W5" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="X5" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="X5" s="27" t="s">
+      <c r="Y5" s="37" t="s">
         <v>113</v>
-      </c>
-      <c r="Y5" s="37" t="s">
-        <v>114</v>
       </c>
       <c r="Z5" s="27" t="s">
         <v>13</v>
@@ -3396,7 +3378,7 @@
       <c r="AW5" s="26"/>
       <c r="AX5" s="26"/>
       <c r="AY5" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ5" s="27">
         <v>1</v>
@@ -3404,7 +3386,7 @@
       <c r="BA5" s="27"/>
       <c r="BB5" s="27"/>
       <c r="BC5" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD5" s="27">
         <v>50</v>
@@ -3432,7 +3414,7 @@
       <c r="BM5" s="27"/>
       <c r="BN5" s="27"/>
       <c r="BO5" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BP5" s="27"/>
       <c r="BQ5" s="27"/>
@@ -3461,20 +3443,18 @@
       <c r="D6" s="27">
         <v>1505</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>72</v>
-      </c>
+      <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="27">
         <v>1</v>
@@ -3522,7 +3502,7 @@
         <v>31</v>
       </c>
       <c r="Y6" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z6" s="27" t="s">
         <v>13</v>
@@ -3558,7 +3538,7 @@
       <c r="AW6" s="26"/>
       <c r="AX6" s="26"/>
       <c r="AY6" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ6" s="27">
         <v>1</v>
@@ -3566,7 +3546,7 @@
       <c r="BA6" s="27"/>
       <c r="BB6" s="27"/>
       <c r="BC6" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD6" s="27">
         <v>1</v>
@@ -3619,20 +3599,18 @@
       <c r="D7" s="27">
         <v>1508</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="27">
         <v>20</v>
@@ -3680,13 +3658,13 @@
         <v>4</v>
       </c>
       <c r="Y7" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="AA7" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB7" s="27">
         <v>198823520</v>
@@ -3716,7 +3694,7 @@
       <c r="AW7" s="26"/>
       <c r="AX7" s="26"/>
       <c r="AY7" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ7" s="27">
         <v>2</v>
@@ -3724,7 +3702,7 @@
       <c r="BA7" s="27"/>
       <c r="BB7" s="27"/>
       <c r="BC7" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD7" s="27">
         <v>10</v>
@@ -3777,20 +3755,18 @@
       <c r="D8" s="27">
         <v>1513</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="27">
         <v>1</v>
@@ -3832,13 +3808,13 @@
         <v>60</v>
       </c>
       <c r="W8" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="X8" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="X8" s="27" t="s">
+      <c r="Y8" s="37" t="s">
         <v>118</v>
-      </c>
-      <c r="Y8" s="37" t="s">
-        <v>119</v>
       </c>
       <c r="Z8" s="27" t="s">
         <v>13</v>
@@ -3874,7 +3850,7 @@
       <c r="AW8" s="26"/>
       <c r="AX8" s="26"/>
       <c r="AY8" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ8" s="27">
         <v>1</v>
@@ -3882,7 +3858,7 @@
       <c r="BA8" s="27"/>
       <c r="BB8" s="27"/>
       <c r="BC8" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD8" s="27">
         <v>1</v>
@@ -3910,7 +3886,7 @@
       <c r="BM8" s="27"/>
       <c r="BN8" s="27"/>
       <c r="BO8" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BP8" s="27"/>
       <c r="BQ8" s="27"/>
@@ -3937,20 +3913,18 @@
       <c r="D9" s="27">
         <v>2501</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="27">
         <v>20</v>
@@ -3989,10 +3963,10 @@
         <v>5551230989</v>
       </c>
       <c r="V9" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X9" s="27" t="s">
         <v>8</v>
@@ -4016,7 +3990,7 @@
         <v>24</v>
       </c>
       <c r="AE9" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF9" s="28" t="s">
         <v>71</v>
@@ -4025,10 +3999,10 @@
         <v>13</v>
       </c>
       <c r="AH9" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI9" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ9" s="27">
         <v>100</v>
@@ -4043,10 +4017,10 @@
         <v>13</v>
       </c>
       <c r="AN9" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO9" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP9" s="27">
         <v>20</v>
@@ -4055,13 +4029,13 @@
         <v>5</v>
       </c>
       <c r="AR9" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS9" s="27">
         <v>100</v>
       </c>
       <c r="AT9" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU9" s="27">
         <v>100</v>
@@ -4070,7 +4044,7 @@
       <c r="AW9" s="26"/>
       <c r="AX9" s="26"/>
       <c r="AY9" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ9" s="27">
         <v>1</v>
@@ -4078,7 +4052,7 @@
       <c r="BA9" s="27"/>
       <c r="BB9" s="27"/>
       <c r="BC9" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD9" s="27">
         <v>20</v>
@@ -4106,7 +4080,7 @@
       <c r="BM9" s="27"/>
       <c r="BN9" s="27"/>
       <c r="BO9" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BP9" s="27"/>
       <c r="BQ9" s="27"/>
@@ -4135,20 +4109,18 @@
       <c r="D10" s="27">
         <v>2502</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E10" s="29"/>
       <c r="F10" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="27">
         <v>20</v>
@@ -4187,10 +4159,10 @@
         <v>5551230989</v>
       </c>
       <c r="V10" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X10" s="27" t="s">
         <v>8</v>
@@ -4214,7 +4186,7 @@
         <v>24</v>
       </c>
       <c r="AE10" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF10" s="28" t="s">
         <v>71</v>
@@ -4223,10 +4195,10 @@
         <v>13</v>
       </c>
       <c r="AH10" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI10" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ10" s="27">
         <v>100</v>
@@ -4241,10 +4213,10 @@
         <v>13</v>
       </c>
       <c r="AN10" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO10" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP10" s="27">
         <v>20</v>
@@ -4253,13 +4225,13 @@
         <v>5</v>
       </c>
       <c r="AR10" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS10" s="27">
         <v>100</v>
       </c>
       <c r="AT10" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU10" s="27">
         <v>100</v>
@@ -4268,7 +4240,7 @@
       <c r="AW10" s="26"/>
       <c r="AX10" s="26"/>
       <c r="AY10" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ10" s="27">
         <v>1</v>
@@ -4276,7 +4248,7 @@
       <c r="BA10" s="27"/>
       <c r="BB10" s="27"/>
       <c r="BC10" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD10" s="27">
         <v>20</v>
@@ -4353,20 +4325,18 @@
       <c r="D11" s="27">
         <v>2503</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E11" s="29"/>
       <c r="F11" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="27">
         <v>66</v>
@@ -4405,10 +4375,10 @@
         <v>8777993421</v>
       </c>
       <c r="V11" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="W11" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="W11" s="27" t="s">
-        <v>124</v>
       </c>
       <c r="X11" s="27" t="s">
         <v>35</v>
@@ -4432,7 +4402,7 @@
         <v>24</v>
       </c>
       <c r="AE11" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF11" s="28" t="s">
         <v>71</v>
@@ -4441,10 +4411,10 @@
         <v>13</v>
       </c>
       <c r="AH11" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AI11" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" s="27">
         <v>100</v>
@@ -4459,10 +4429,10 @@
         <v>13</v>
       </c>
       <c r="AN11" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO11" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP11" s="27">
         <v>66</v>
@@ -4471,13 +4441,13 @@
         <v>5</v>
       </c>
       <c r="AR11" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS11" s="27">
         <v>100</v>
       </c>
       <c r="AT11" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU11" s="27">
         <v>100</v>
@@ -4486,7 +4456,7 @@
       <c r="AW11" s="26"/>
       <c r="AX11" s="26"/>
       <c r="AY11" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ11" s="27">
         <v>2</v>
@@ -4494,22 +4464,22 @@
       <c r="BA11" s="27"/>
       <c r="BB11" s="27"/>
       <c r="BC11" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD11" s="27">
         <v>33</v>
       </c>
-      <c r="BE11" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="BF11" s="27" t="s">
+      <c r="BE11" s="27">
+        <v>41</v>
+      </c>
+      <c r="BF11" s="27">
+        <v>30</v>
+      </c>
+      <c r="BG11" s="27">
+        <v>23</v>
+      </c>
+      <c r="BH11" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="BG11" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH11" s="27" t="s">
-        <v>171</v>
       </c>
       <c r="BI11" s="27" t="s">
         <v>2</v>
@@ -4547,17 +4517,15 @@
       <c r="D12" s="27">
         <v>2505</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="27" t="s">
         <v>29</v>
@@ -4599,16 +4567,16 @@
         <v>8777993421</v>
       </c>
       <c r="V12" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="W12" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="W12" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="X12" s="27" t="s">
         <v>28</v>
       </c>
       <c r="Y12" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z12" s="27" t="s">
         <v>9</v>
@@ -4626,7 +4594,7 @@
         <v>24</v>
       </c>
       <c r="AE12" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF12" s="28" t="s">
         <v>71</v>
@@ -4635,10 +4603,10 @@
         <v>13</v>
       </c>
       <c r="AH12" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI12" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ12" s="27">
         <v>100</v>
@@ -4665,13 +4633,13 @@
         <v>5</v>
       </c>
       <c r="AR12" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS12" s="27">
         <v>100</v>
       </c>
       <c r="AT12" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU12" s="27">
         <v>100</v>
@@ -4680,7 +4648,7 @@
       <c r="AW12" s="26"/>
       <c r="AX12" s="26"/>
       <c r="AY12" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ12" s="27">
         <v>1</v>
@@ -4741,20 +4709,18 @@
       <c r="D13" s="27">
         <v>2507</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E13" s="29"/>
       <c r="F13" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="27">
         <v>110</v>
@@ -4793,7 +4759,7 @@
         <v>5551230989</v>
       </c>
       <c r="V13" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W13" s="27" t="s">
         <v>23</v>
@@ -4820,7 +4786,7 @@
         <v>24</v>
       </c>
       <c r="AE13" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF13" s="28" t="s">
         <v>71</v>
@@ -4829,10 +4795,10 @@
         <v>13</v>
       </c>
       <c r="AH13" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI13" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ13" s="27">
         <v>100</v>
@@ -4847,10 +4813,10 @@
         <v>13</v>
       </c>
       <c r="AN13" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO13" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP13" s="27">
         <v>110</v>
@@ -4859,13 +4825,13 @@
         <v>5</v>
       </c>
       <c r="AR13" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS13" s="27">
         <v>100</v>
       </c>
       <c r="AT13" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU13" s="27">
         <v>100</v>
@@ -4874,7 +4840,7 @@
       <c r="AW13" s="26"/>
       <c r="AX13" s="26"/>
       <c r="AY13" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ13" s="27">
         <v>1</v>
@@ -4882,7 +4848,7 @@
       <c r="BA13" s="27"/>
       <c r="BB13" s="27"/>
       <c r="BC13" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD13" s="27">
         <v>110</v>
@@ -4932,7 +4898,7 @@
         <v>8889348833</v>
       </c>
       <c r="BW13" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BX13" s="27" t="s">
         <v>39</v>
@@ -4959,20 +4925,18 @@
       <c r="D14" s="27">
         <v>2508</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E14" s="29"/>
       <c r="F14" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="27">
         <v>25</v>
@@ -5011,10 +4975,10 @@
         <v>8776975565</v>
       </c>
       <c r="V14" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W14" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X14" s="27" t="s">
         <v>16</v>
@@ -5026,7 +4990,7 @@
         <v>9</v>
       </c>
       <c r="AA14" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB14" s="27">
         <v>198823520</v>
@@ -5035,7 +4999,7 @@
         <v>13</v>
       </c>
       <c r="AD14" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE14" s="27">
         <v>198823520</v>
@@ -5047,10 +5011,10 @@
         <v>13</v>
       </c>
       <c r="AH14" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI14" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" s="27">
         <v>100</v>
@@ -5065,10 +5029,10 @@
         <v>13</v>
       </c>
       <c r="AN14" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO14" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP14" s="27">
         <v>25</v>
@@ -5077,13 +5041,13 @@
         <v>5</v>
       </c>
       <c r="AR14" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS14" s="27">
         <v>100</v>
       </c>
       <c r="AT14" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU14" s="27">
         <v>100</v>
@@ -5092,7 +5056,7 @@
       <c r="AW14" s="26"/>
       <c r="AX14" s="26"/>
       <c r="AY14" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ14" s="27">
         <v>1</v>
@@ -5100,7 +5064,7 @@
       <c r="BA14" s="27"/>
       <c r="BB14" s="27"/>
       <c r="BC14" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD14" s="27">
         <v>25</v>
@@ -5153,20 +5117,18 @@
       <c r="D15" s="27">
         <v>2509</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="27">
         <v>60</v>
@@ -5220,7 +5182,7 @@
         <v>9</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB15" s="27">
         <v>198823520</v>
@@ -5229,7 +5191,7 @@
         <v>13</v>
       </c>
       <c r="AD15" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE15" s="27">
         <v>198823520</v>
@@ -5241,10 +5203,10 @@
         <v>13</v>
       </c>
       <c r="AH15" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI15" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" s="27">
         <v>100</v>
@@ -5259,10 +5221,10 @@
         <v>13</v>
       </c>
       <c r="AN15" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO15" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP15" s="27">
         <v>60</v>
@@ -5271,13 +5233,13 @@
         <v>5</v>
       </c>
       <c r="AR15" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS15" s="27">
         <v>100</v>
       </c>
       <c r="AT15" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU15" s="27">
         <v>100</v>
@@ -5286,19 +5248,19 @@
       <c r="AW15" s="26"/>
       <c r="AX15" s="26"/>
       <c r="AY15" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ15" s="27">
         <v>1</v>
       </c>
       <c r="BA15" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BB15" s="27">
         <v>100</v>
       </c>
       <c r="BC15" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD15" s="27">
         <v>60</v>
@@ -5326,7 +5288,7 @@
       <c r="BM15" s="27"/>
       <c r="BN15" s="27"/>
       <c r="BO15" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BP15" s="27"/>
       <c r="BQ15" s="27"/>
@@ -5355,20 +5317,18 @@
       <c r="D16" s="46">
         <v>2513</v>
       </c>
-      <c r="E16" s="43" t="s">
-        <v>72</v>
-      </c>
+      <c r="E16" s="43"/>
       <c r="F16" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="46">
         <v>9</v>
@@ -5407,16 +5367,16 @@
         <v>8883499987</v>
       </c>
       <c r="V16" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="W16" s="46" t="s">
         <v>133</v>
-      </c>
-      <c r="W16" s="46" t="s">
-        <v>134</v>
       </c>
       <c r="X16" s="46" t="s">
         <v>12</v>
       </c>
       <c r="Y16" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z16" s="46" t="s">
         <v>9</v>
@@ -5443,10 +5403,10 @@
         <v>13</v>
       </c>
       <c r="AH16" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI16" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" s="46">
         <v>100</v>
@@ -5461,10 +5421,10 @@
         <v>13</v>
       </c>
       <c r="AN16" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO16" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP16" s="46">
         <v>9</v>
@@ -5473,13 +5433,13 @@
         <v>5</v>
       </c>
       <c r="AR16" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS16" s="46">
         <v>100</v>
       </c>
       <c r="AT16" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU16" s="46">
         <v>100</v>
@@ -5488,7 +5448,7 @@
       <c r="AW16" s="45"/>
       <c r="AX16" s="45"/>
       <c r="AY16" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ16" s="46">
         <v>1</v>
@@ -5496,7 +5456,7 @@
       <c r="BA16" s="46"/>
       <c r="BB16" s="46"/>
       <c r="BC16" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD16" s="46">
         <v>9</v>
@@ -5543,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>30</v>
@@ -5551,20 +5511,18 @@
       <c r="D17" s="51">
         <v>1503</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>72</v>
-      </c>
+      <c r="E17" s="50"/>
       <c r="F17" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="51">
         <v>10</v>
@@ -5606,13 +5564,13 @@
         <v>60</v>
       </c>
       <c r="W17" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="X17" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="X17" s="51" t="s">
+      <c r="Y17" s="59" t="s">
         <v>110</v>
-      </c>
-      <c r="Y17" s="59" t="s">
-        <v>111</v>
       </c>
       <c r="Z17" s="51" t="s">
         <v>13</v>
@@ -5648,7 +5606,7 @@
       <c r="AW17" s="50"/>
       <c r="AX17" s="50"/>
       <c r="AY17" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ17" s="51">
         <v>1</v>
@@ -5656,7 +5614,7 @@
       <c r="BA17" s="51"/>
       <c r="BB17" s="51"/>
       <c r="BC17" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD17" s="51">
         <v>10</v>
@@ -5709,20 +5667,18 @@
       <c r="D18" s="44">
         <v>2504</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>72</v>
-      </c>
+      <c r="E18" s="42"/>
       <c r="F18" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="44">
         <v>12</v>
@@ -5761,10 +5717,10 @@
         <v>8777993421</v>
       </c>
       <c r="V18" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="W18" s="44" t="s">
         <v>125</v>
-      </c>
-      <c r="W18" s="44" t="s">
-        <v>126</v>
       </c>
       <c r="X18" s="44" t="s">
         <v>15</v>
@@ -5788,7 +5744,7 @@
         <v>24</v>
       </c>
       <c r="AE18" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF18" s="8" t="s">
         <v>71</v>
@@ -5797,10 +5753,10 @@
         <v>13</v>
       </c>
       <c r="AH18" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI18" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ18" s="44">
         <v>100</v>
@@ -5815,10 +5771,10 @@
         <v>13</v>
       </c>
       <c r="AN18" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AO18" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP18" s="44">
         <v>12</v>
@@ -5827,13 +5783,13 @@
         <v>5</v>
       </c>
       <c r="AR18" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS18" s="44">
         <v>100</v>
       </c>
       <c r="AT18" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU18" s="44">
         <v>100</v>
@@ -5842,7 +5798,7 @@
       <c r="AW18" s="41"/>
       <c r="AX18" s="41"/>
       <c r="AY18" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ18" s="44">
         <v>1</v>
@@ -5850,7 +5806,7 @@
       <c r="BA18" s="44"/>
       <c r="BB18" s="44"/>
       <c r="BC18" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD18" s="44">
         <v>12</v>
@@ -5878,7 +5834,7 @@
       <c r="BM18" s="44"/>
       <c r="BN18" s="44"/>
       <c r="BO18" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BP18" s="44"/>
       <c r="BQ18" s="44"/>
